--- a/Results/Planning.xlsx
+++ b/Results/Planning.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Git_SDP/SDP_Optimization/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9B24467F-064F-3347-A5DE-A66D487B863B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0616505-F6FF-B243-9672-AE760E3A4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning_toy_instance" sheetId="1" r:id="rId1"/>
-    <sheet name="planning_medium_instance" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="planning_medium_instance" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17320" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17608" uniqueCount="279">
   <si>
     <t>Project 1 - Qualification 1</t>
   </si>
@@ -856,11 +857,14 @@
   <si>
     <t>Job3</t>
   </si>
+  <si>
+    <t>-0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1363,7 +1367,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1384,6 +1388,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1438,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1781,11 +1818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H6"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2878,7 +2915,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:U18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"1.0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2888,7 +2925,941 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA2FD1F-E0D1-ED4E-B50F-BF18CBCC44AC}">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="4.1640625" style="8" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="4.1640625" style="8" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="4.1640625" style="8" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="4.1640625" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"1.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>"1.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FJ117"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
@@ -56479,15 +57450,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"1.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ1:FJ1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>"1.1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results/Planning.xlsx
+++ b/Results/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Git_SDP/SDP_Optimization/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0616505-F6FF-B243-9672-AE760E3A4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDFAE97-CDA5-1842-B27C-A3A46C548A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning_toy_instance" sheetId="1" r:id="rId1"/>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA2FD1F-E0D1-ED4E-B50F-BF18CBCC44AC}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3863,14 +3863,16 @@
   <dimension ref="A1:FJ117"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="3.83203125" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="22" width="10.83203125" style="1"/>
     <col min="23" max="23" width="3.83203125" style="1" customWidth="1"/>
     <col min="24" max="33" width="10.83203125" style="1"/>
     <col min="34" max="34" width="3.83203125" style="1" customWidth="1"/>
